--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J338"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11955,6 +11955,222 @@
         <v>374.9071428571429</v>
       </c>
       <c r="J338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>375.1766666666667</v>
+      </c>
+      <c r="C339" t="n">
+        <v>368.1863636363637</v>
+      </c>
+      <c r="D339" t="n">
+        <v>368.3160869565218</v>
+      </c>
+      <c r="E339" t="n">
+        <v>373.6760869565218</v>
+      </c>
+      <c r="F339" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="G339" t="n">
+        <v>363.6363636363636</v>
+      </c>
+      <c r="H339" t="n">
+        <v>349.8460869565217</v>
+      </c>
+      <c r="I339" t="n">
+        <v>355.0714285714286</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>366.7522222222222</v>
+      </c>
+      <c r="C340" t="n">
+        <v>362.2054545454546</v>
+      </c>
+      <c r="D340" t="n">
+        <v>366.7673913043478</v>
+      </c>
+      <c r="E340" t="n">
+        <v>376.4273913043478</v>
+      </c>
+      <c r="F340" t="n">
+        <v>364.4766666666667</v>
+      </c>
+      <c r="G340" t="n">
+        <v>356.9754545454546</v>
+      </c>
+      <c r="H340" t="n">
+        <v>354.0173913043478</v>
+      </c>
+      <c r="I340" t="n">
+        <v>360.4185714285715</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>359.2444444444445</v>
+      </c>
+      <c r="C341" t="n">
+        <v>360.6463636363636</v>
+      </c>
+      <c r="D341" t="n">
+        <v>365.4895652173913</v>
+      </c>
+      <c r="E341" t="n">
+        <v>373.9595652173913</v>
+      </c>
+      <c r="F341" t="n">
+        <v>369.0933333333333</v>
+      </c>
+      <c r="G341" t="n">
+        <v>363.9563636363636</v>
+      </c>
+      <c r="H341" t="n">
+        <v>343.1595652173913</v>
+      </c>
+      <c r="I341" t="n">
+        <v>351.5157142857143</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>366.1488888888889</v>
+      </c>
+      <c r="C342" t="n">
+        <v>354.0981818181818</v>
+      </c>
+      <c r="D342" t="n">
+        <v>359.0986956521739</v>
+      </c>
+      <c r="E342" t="n">
+        <v>362.588695652174</v>
+      </c>
+      <c r="F342" t="n">
+        <v>358.9166666666667</v>
+      </c>
+      <c r="G342" t="n">
+        <v>357.6281818181818</v>
+      </c>
+      <c r="H342" t="n">
+        <v>349.898695652174</v>
+      </c>
+      <c r="I342" t="n">
+        <v>359.6257142857143</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="C343" t="n">
+        <v>370.8409090909091</v>
+      </c>
+      <c r="D343" t="n">
+        <v>375.3730434782609</v>
+      </c>
+      <c r="E343" t="n">
+        <v>383.1930434782609</v>
+      </c>
+      <c r="F343" t="n">
+        <v>378.16</v>
+      </c>
+      <c r="G343" t="n">
+        <v>380.550909090909</v>
+      </c>
+      <c r="H343" t="n">
+        <v>370.0630434782609</v>
+      </c>
+      <c r="I343" t="n">
+        <v>371.4342857142857</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>369.2144444444445</v>
+      </c>
+      <c r="C344" t="n">
+        <v>363.7181818181818</v>
+      </c>
+      <c r="D344" t="n">
+        <v>367.4956521739131</v>
+      </c>
+      <c r="E344" t="n">
+        <v>373.2956521739131</v>
+      </c>
+      <c r="F344" t="n">
+        <v>371.5933333333333</v>
+      </c>
+      <c r="G344" t="n">
+        <v>370.0281818181818</v>
+      </c>
+      <c r="H344" t="n">
+        <v>354.2656521739131</v>
+      </c>
+      <c r="I344" t="n">
+        <v>363.6942857142857</v>
+      </c>
+      <c r="J344" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11971,7 +12187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15449,6 +15665,66 @@
       </c>
       <c r="B347" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -15617,28 +15893,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3505114336118692</v>
+        <v>0.3378385542767948</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05299056222368514</v>
+        <v>0.05111628303248617</v>
       </c>
       <c r="M2" t="n">
-        <v>8.274784954282278</v>
+        <v>8.227043906663791</v>
       </c>
       <c r="N2" t="n">
-        <v>112.3093859083693</v>
+        <v>110.9335821542661</v>
       </c>
       <c r="O2" t="n">
-        <v>10.59761227392139</v>
+        <v>10.5325012297301</v>
       </c>
       <c r="P2" t="n">
-        <v>363.0814353156793</v>
+        <v>363.2073595456418</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15694,28 +15970,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3028098937803065</v>
+        <v>0.2908428544016771</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05872939610725736</v>
+        <v>0.05640671352117022</v>
       </c>
       <c r="M3" t="n">
-        <v>7.064015028148759</v>
+        <v>7.02303175371558</v>
       </c>
       <c r="N3" t="n">
-        <v>74.68337871417843</v>
+        <v>73.89946472335406</v>
       </c>
       <c r="O3" t="n">
-        <v>8.641954565616416</v>
+        <v>8.596479786712353</v>
       </c>
       <c r="P3" t="n">
-        <v>358.4072308449795</v>
+        <v>358.524236481695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15771,28 +16047,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2305059714622025</v>
+        <v>0.231908497295879</v>
       </c>
       <c r="J4" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03353961923539295</v>
+        <v>0.03525613179021025</v>
       </c>
       <c r="M4" t="n">
-        <v>7.030829385660666</v>
+        <v>6.954810628091205</v>
       </c>
       <c r="N4" t="n">
-        <v>79.01916341678155</v>
+        <v>77.88885494274935</v>
       </c>
       <c r="O4" t="n">
-        <v>8.889272378366046</v>
+        <v>8.825466273390282</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8903948113422</v>
+        <v>360.8765696600129</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15848,28 +16124,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1224247531752771</v>
+        <v>0.13700686773076</v>
       </c>
       <c r="J5" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01102768998333437</v>
+        <v>0.01422888570620495</v>
       </c>
       <c r="M5" t="n">
-        <v>6.464138512186205</v>
+        <v>6.447267702056175</v>
       </c>
       <c r="N5" t="n">
-        <v>67.19197950989556</v>
+        <v>66.8175200813459</v>
       </c>
       <c r="O5" t="n">
-        <v>8.197071398365123</v>
+        <v>8.174198436626426</v>
       </c>
       <c r="P5" t="n">
-        <v>367.2549196602633</v>
+        <v>367.111493018775</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15925,28 +16201,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02024999998619719</v>
+        <v>0.02064136658274628</v>
       </c>
       <c r="J6" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002339381231645232</v>
+        <v>0.0002526495093625458</v>
       </c>
       <c r="M6" t="n">
-        <v>7.161216752135058</v>
+        <v>7.111192545323211</v>
       </c>
       <c r="N6" t="n">
-        <v>87.54712773507052</v>
+        <v>86.51025159216169</v>
       </c>
       <c r="O6" t="n">
-        <v>9.35666221123059</v>
+        <v>9.301088731549747</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0224800837223</v>
+        <v>368.0183833704511</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16002,28 +16278,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1601716423123555</v>
+        <v>-0.1688949598347478</v>
       </c>
       <c r="J7" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K7" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01610237363297595</v>
+        <v>0.01836536148223067</v>
       </c>
       <c r="M7" t="n">
-        <v>7.176263921944784</v>
+        <v>7.17869290249336</v>
       </c>
       <c r="N7" t="n">
-        <v>80.09485746769059</v>
+        <v>79.87894276712551</v>
       </c>
       <c r="O7" t="n">
-        <v>8.949573032703325</v>
+        <v>8.937502042915879</v>
       </c>
       <c r="P7" t="n">
-        <v>371.7228024121861</v>
+        <v>371.8081012498558</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16079,28 +16355,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1480204630921193</v>
+        <v>-0.1842042577856461</v>
       </c>
       <c r="J8" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K8" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0133049876834882</v>
+        <v>0.02064876171982988</v>
       </c>
       <c r="M8" t="n">
-        <v>7.253922125416629</v>
+        <v>7.36252826982228</v>
       </c>
       <c r="N8" t="n">
-        <v>82.05070111432327</v>
+        <v>83.27409818336268</v>
       </c>
       <c r="O8" t="n">
-        <v>9.058184206248141</v>
+        <v>9.125464272208987</v>
       </c>
       <c r="P8" t="n">
-        <v>366.2897314115554</v>
+        <v>366.6501956381524</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16156,28 +16432,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08627820755697808</v>
+        <v>-0.1159809018438264</v>
       </c>
       <c r="J9" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00379322448029884</v>
+        <v>0.007001319578384901</v>
       </c>
       <c r="M9" t="n">
-        <v>8.094660993747443</v>
+        <v>8.101193264642802</v>
       </c>
       <c r="N9" t="n">
-        <v>100.3445965329084</v>
+        <v>100.2239209744764</v>
       </c>
       <c r="O9" t="n">
-        <v>10.01721500881899</v>
+        <v>10.01118978815587</v>
       </c>
       <c r="P9" t="n">
-        <v>370.074468785265</v>
+        <v>370.3685640594815</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16214,7 +16490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J338"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32478,6 +32754,318 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-36.82713387162714,175.71496664863173</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-36.82780179234546,175.71531797596523</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-36.82845303303657,175.7157009819082</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-36.82906713333456,175.71614609544017</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-36.82967820171505,175.71659610811753</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-36.83027292207364,175.71708946334277</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-36.83082307445805,175.71769244702335</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-36.831192120664326,175.7184687877309</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-36.82717045052207,175.7148839379072</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-36.827826650582324,175.71525851597679</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-36.828459307358706,175.7156854817959</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-36.829054380441455,175.7161725313501</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-36.829705167542656,175.71655118319342</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-36.830315699829505,175.7170371218045</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-36.83079254959103,175.71771970638642</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-36.83115190741393,175.71850177223084</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-36.827203049209,175.7148102268961</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-36.82783313057102,175.71524301606445</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-36.82846448428956,175.71567269267825</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-36.82906581935151,175.71614881924168</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-36.82968028568363,175.7165926362391</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-36.830270866965954,175.71709197790685</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-36.83087200522932,175.717648750737</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-36.831218861450765,175.71844685385685</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-36.827173070190256,175.71487801441114</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-36.82786034650255,175.71517791640298</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-36.828490375969935,175.71560872965696</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-36.82911852574463,175.7160395621408</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-36.82973513354707,175.7165012599224</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-36.83031150787893,175.71704225094922</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-36.83082268947697,175.7176927908199</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-36.83115787010584,175.7184968813974</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-36.827129515155264,175.71497649929688</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-36.82779075934481,175.7153443664626</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-36.82842444274746,175.71577161138717</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-36.82902302015086,175.71623753908588</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-36.82963142018844,175.7166740457512</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-36.83016429321926,175.71722237787003</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-36.830675130296655,175.71782456409824</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-36.83106906358059,175.7185697238953</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-36.827159759571344,175.7149081118757</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-36.82782036329118,175.7152735549562</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-36.82845635691269,175.7156927705913</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-36.82906889673196,175.71614244003155</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-36.829666811747124,175.7166150837254</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-36.830231872456345,175.71713969030523</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-36.83079073286176,175.71772132876396</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-36.831127272362366,175.71852197885545</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -15738,7 +15738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15829,35 +15829,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15916,27 +15921,28 @@
       <c r="P2" t="n">
         <v>363.2073595456418</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.71128310618937 -36.82876283387619, 175.7203182049738 -36.82476694828604)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7112831061894</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.82876283387619</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7203182049738</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.82476694828604</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7158006555816</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.82676489108111</v>
       </c>
     </row>
@@ -15993,27 +15999,28 @@
       <c r="P3" t="n">
         <v>358.524236481695</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.71165752879602 -36.82933201930725, 175.72080668725923 -36.82550695162062)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.711657528796</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.82933201930725</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7208066872592</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.82550695162062</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7162321080276</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.82741948546393</v>
       </c>
     </row>
@@ -16070,27 +16077,28 @@
       <c r="P4" t="n">
         <v>360.8765696600129</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.71201461821127 -36.82994515951324, 175.72122543349462 -36.82621658849196)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7120146182113</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.82994515951324</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7212254334946</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.82621658849196</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7166200258529</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.82808087400259</v>
       </c>
     </row>
@@ -16147,27 +16155,28 @@
       <c r="P5" t="n">
         <v>367.111493018775</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.71255554460805 -36.830799151558, 175.7213973975139 -36.82653366901798)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7125555446081</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.830799151558</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7213973975139</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.82653366901798</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.716976471061</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.82866641028799</v>
       </c>
     </row>
@@ -16224,27 +16233,28 @@
       <c r="P6" t="n">
         <v>368.0183833704511</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.71327846141435 -36.83166949840406, 175.7215398494418 -36.8267105461851)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7132784614143</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.83166949840406</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7215398494418</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.8267105461851</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7174091554281</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.82919002229458</v>
       </c>
     </row>
@@ -16301,27 +16311,28 @@
       <c r="P7" t="n">
         <v>371.8081012498558</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.71423191722218 -36.83260824043377, 175.7214602466569 -36.82670052085084)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7142319172222</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.83260824043377</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7214602466569</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.82670052085084</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7178460819395</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.82965438064231</v>
       </c>
     </row>
@@ -16378,27 +16389,28 @@
       <c r="P8" t="n">
         <v>366.6501956381524</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.71540613626345 -36.833383166591815, 175.7214160386084 -36.826653147375126)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.7154061362635</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.83338316659182</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.7214160386084</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.82665314737513</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.7184110874359</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.83001815698347</v>
       </c>
     </row>
@@ -16455,27 +16467,28 @@
       <c r="P9" t="n">
         <v>370.3685640594815</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.71627841081 -36.83386242160799, 175.7219510734949 -36.82694639939684)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.71627841081</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.83386242160799</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.7219510734949</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.82694639939684</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.7191147421524</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.83040441050241</v>
       </c>
     </row>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J344"/>
+  <dimension ref="A1:J349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12171,6 +12171,186 @@
         <v>363.6942857142857</v>
       </c>
       <c r="J344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>367.6477777777778</v>
+      </c>
+      <c r="C345" t="n">
+        <v>360.0954545454546</v>
+      </c>
+      <c r="D345" t="n">
+        <v>364.5056521739131</v>
+      </c>
+      <c r="E345" t="n">
+        <v>372.6056521739131</v>
+      </c>
+      <c r="F345" t="n">
+        <v>378.1333333333333</v>
+      </c>
+      <c r="G345" t="n">
+        <v>372.9354545454545</v>
+      </c>
+      <c r="H345" t="n">
+        <v>368.685652173913</v>
+      </c>
+      <c r="I345" t="n">
+        <v>368.4557142857143</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>372.8655555555556</v>
+      </c>
+      <c r="C346" t="n">
+        <v>363.1736363636364</v>
+      </c>
+      <c r="D346" t="n">
+        <v>372.6104347826087</v>
+      </c>
+      <c r="E346" t="n">
+        <v>376.9904347826087</v>
+      </c>
+      <c r="F346" t="n">
+        <v>370.6266666666667</v>
+      </c>
+      <c r="G346" t="n">
+        <v>374.2736363636364</v>
+      </c>
+      <c r="H346" t="n">
+        <v>361.5304347826087</v>
+      </c>
+      <c r="I346" t="n">
+        <v>366.7942857142857</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>379.3333333333333</v>
+      </c>
+      <c r="C347" t="n">
+        <v>375.9754545454546</v>
+      </c>
+      <c r="D347" t="n">
+        <v>378.1726086956522</v>
+      </c>
+      <c r="E347" t="n">
+        <v>377.9026086956522</v>
+      </c>
+      <c r="F347" t="n">
+        <v>377.57</v>
+      </c>
+      <c r="G347" t="n">
+        <v>380.6754545454546</v>
+      </c>
+      <c r="H347" t="n">
+        <v>372.9726086956522</v>
+      </c>
+      <c r="I347" t="n">
+        <v>383.7942857142857</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>362.6744444444445</v>
+      </c>
+      <c r="C348" t="n">
+        <v>362.4181818181818</v>
+      </c>
+      <c r="D348" t="n">
+        <v>363.0156521739131</v>
+      </c>
+      <c r="E348" t="n">
+        <v>373.6256521739131</v>
+      </c>
+      <c r="F348" t="n">
+        <v>369.9333333333333</v>
+      </c>
+      <c r="G348" t="n">
+        <v>377.7081818181818</v>
+      </c>
+      <c r="H348" t="n">
+        <v>372.895652173913</v>
+      </c>
+      <c r="I348" t="n">
+        <v>366.3642857142857</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>350.46</v>
+      </c>
+      <c r="C349" t="n">
+        <v>341.8063636363636</v>
+      </c>
+      <c r="D349" t="n">
+        <v>347.1252173913044</v>
+      </c>
+      <c r="E349" t="n">
+        <v>354.4152173913044</v>
+      </c>
+      <c r="F349" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="G349" t="n">
+        <v>355.3063636363636</v>
+      </c>
+      <c r="H349" t="n">
+        <v>360.9352173913044</v>
+      </c>
+      <c r="I349" t="n">
+        <v>355.0757142857143</v>
+      </c>
+      <c r="J349" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12187,7 +12367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15725,6 +15905,56 @@
       </c>
       <c r="B353" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -15898,28 +16128,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3378385542767948</v>
+        <v>0.3207792664883463</v>
       </c>
       <c r="J2" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05111628303248617</v>
+        <v>0.04708050185709345</v>
       </c>
       <c r="M2" t="n">
-        <v>8.227043906663791</v>
+        <v>8.239034654140605</v>
       </c>
       <c r="N2" t="n">
-        <v>110.9335821542661</v>
+        <v>111.1196432343155</v>
       </c>
       <c r="O2" t="n">
-        <v>10.5325012297301</v>
+        <v>10.54133024026453</v>
       </c>
       <c r="P2" t="n">
-        <v>363.2073595456418</v>
+        <v>363.3794606766438</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15976,28 +16206,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2908428544016771</v>
+        <v>0.2726134218328286</v>
       </c>
       <c r="J3" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05640671352117022</v>
+        <v>0.05015420401415538</v>
       </c>
       <c r="M3" t="n">
-        <v>7.02303175371558</v>
+        <v>7.05700156174769</v>
       </c>
       <c r="N3" t="n">
-        <v>73.89946472335406</v>
+        <v>75.12038787802808</v>
       </c>
       <c r="O3" t="n">
-        <v>8.596479786712353</v>
+        <v>8.667201848233839</v>
       </c>
       <c r="P3" t="n">
-        <v>358.524236481695</v>
+        <v>358.7049929404864</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16054,28 +16284,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.231908497295879</v>
+        <v>0.2260671648485828</v>
       </c>
       <c r="J4" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03525613179021025</v>
+        <v>0.03397009982413457</v>
       </c>
       <c r="M4" t="n">
-        <v>6.954810628091205</v>
+        <v>6.985969893294841</v>
       </c>
       <c r="N4" t="n">
-        <v>77.88885494274935</v>
+        <v>78.48532753837057</v>
       </c>
       <c r="O4" t="n">
-        <v>8.825466273390282</v>
+        <v>8.859194519727545</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8765696600129</v>
+        <v>360.9347871446337</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16132,28 +16362,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.13700686773076</v>
+        <v>0.1385357705152863</v>
       </c>
       <c r="J5" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01422888570620495</v>
+        <v>0.01483656782422005</v>
       </c>
       <c r="M5" t="n">
-        <v>6.447267702056175</v>
+        <v>6.454555987169453</v>
       </c>
       <c r="N5" t="n">
-        <v>66.8175200813459</v>
+        <v>66.93192495936916</v>
       </c>
       <c r="O5" t="n">
-        <v>8.174198436626426</v>
+        <v>8.181193370124506</v>
       </c>
       <c r="P5" t="n">
-        <v>367.111493018775</v>
+        <v>367.0966785863667</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16210,28 +16440,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02064136658274628</v>
+        <v>0.02593730125787544</v>
       </c>
       <c r="J6" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002526495093625458</v>
+        <v>0.0004083675715699231</v>
       </c>
       <c r="M6" t="n">
-        <v>7.111192545323211</v>
+        <v>7.112149294389015</v>
       </c>
       <c r="N6" t="n">
-        <v>86.51025159216169</v>
+        <v>86.32690107934619</v>
       </c>
       <c r="O6" t="n">
-        <v>9.301088731549747</v>
+        <v>9.29122710299055</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0183833704511</v>
+        <v>367.9658998664152</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16288,28 +16518,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1688949598347478</v>
+        <v>-0.1535879216151282</v>
       </c>
       <c r="J7" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K7" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01836536148223067</v>
+        <v>0.01547998014901619</v>
       </c>
       <c r="M7" t="n">
-        <v>7.17869290249336</v>
+        <v>7.215081845985487</v>
       </c>
       <c r="N7" t="n">
-        <v>79.87894276712551</v>
+        <v>80.19579497955448</v>
       </c>
       <c r="O7" t="n">
-        <v>8.937502042915879</v>
+        <v>8.955210493313626</v>
       </c>
       <c r="P7" t="n">
-        <v>371.8081012498558</v>
+        <v>371.6561589184116</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16366,28 +16596,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1842042577856461</v>
+        <v>-0.1662782962215816</v>
       </c>
       <c r="J8" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02064876171982988</v>
+        <v>0.01730828401921292</v>
       </c>
       <c r="M8" t="n">
-        <v>7.36252826982228</v>
+        <v>7.327732135146196</v>
       </c>
       <c r="N8" t="n">
-        <v>83.27409818336268</v>
+        <v>82.83729735046917</v>
       </c>
       <c r="O8" t="n">
-        <v>9.125464272208987</v>
+        <v>9.101499730839372</v>
       </c>
       <c r="P8" t="n">
-        <v>366.6501956381524</v>
+        <v>366.4693817311211</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16444,28 +16674,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1159809018438264</v>
+        <v>-0.1137809673917453</v>
       </c>
       <c r="J9" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007001319578384901</v>
+        <v>0.006883665546946971</v>
       </c>
       <c r="M9" t="n">
-        <v>8.101193264642802</v>
+        <v>8.072433176391177</v>
       </c>
       <c r="N9" t="n">
-        <v>100.2239209744764</v>
+        <v>99.9726083016933</v>
       </c>
       <c r="O9" t="n">
-        <v>10.01118978815587</v>
+        <v>9.998630321283676</v>
       </c>
       <c r="P9" t="n">
-        <v>370.3685640594815</v>
+        <v>370.3467573510239</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16503,7 +16733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J344"/>
+  <dimension ref="A1:J349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33079,6 +33309,266 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-36.82716656202701,175.71489273042542</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-36.82783542029252,175.71523753912686</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-36.82846847047257,175.71566284518698</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-36.82907209503073,175.7161358101643</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-36.82963156391056,175.7166738063116</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-36.830213201325485,175.71716253566169</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-36.83068520981007,175.7178155629121</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-36.83109146397202,175.7185513502588</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-36.82714390646526,175.71494395828014</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-36.82782262656505,175.71526814128543</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-36.82843563508153,175.7157439618521</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-36.829051770612004,175.7161779413527</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-36.82967202166971,175.71660640403164</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-36.83020460723265,175.71717305109405</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-36.830737570454545,175.71776880387213</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-36.83110395876962,175.71854110155434</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-36.82711582338148,175.7150074585227</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-36.82776941878528,175.71539541216944</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-36.82841310068281,175.7157996307926</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-36.82904754248622,175.71618670597385</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-36.82963460004026,175.71666874815014</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-36.83016349336103,175.71722335654704</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-36.83065383859525,175.71784357795983</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-36.83097610998737,175.71864596776553</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-36.82718815619284,175.71484390248372</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-36.82782576643212,175.71526063083343</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-36.82847450699304,175.7156479325236</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-36.82906736711068,175.71614561083746</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-36.829675758441404,175.7166001785954</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-36.8301825498356,175.71720003974053</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-36.830654401749975,175.71784307505297</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-36.8311071925907,175.7185384490516</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-36.827241191113224,175.71472398154935</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-36.8279114343757,175.7150557154516</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-36.8285388846908,175.7154888929732</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-36.82915641149203,175.71596102710734</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-36.82975893746349,175.71646160261952</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-36.83032641907828,175.71702400605028</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-36.83074192615183,175.71776491414906</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-36.83119208843357,175.71846881416784</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J349"/>
+  <dimension ref="A1:J350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12353,6 +12353,42 @@
       <c r="J349" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>371.5066666666667</v>
+      </c>
+      <c r="C350" t="n">
+        <v>362.91</v>
+      </c>
+      <c r="D350" t="n">
+        <v>361.4595652173913</v>
+      </c>
+      <c r="E350" t="n">
+        <v>369.6195652173913</v>
+      </c>
+      <c r="F350" t="n">
+        <v>370.41</v>
+      </c>
+      <c r="G350" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="H350" t="n">
+        <v>371.0195652173913</v>
+      </c>
+      <c r="I350" t="n">
+        <v>372.7371428571428</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15955,6 +15991,16 @@
       </c>
       <c r="B358" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -16128,28 +16174,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3207792664883463</v>
+        <v>0.3206786113514406</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04708050185709345</v>
+        <v>0.04736363242935249</v>
       </c>
       <c r="M2" t="n">
-        <v>8.239034654140605</v>
+        <v>8.212987835826691</v>
       </c>
       <c r="N2" t="n">
-        <v>111.1196432343155</v>
+        <v>110.7612708896416</v>
       </c>
       <c r="O2" t="n">
-        <v>10.54133024026453</v>
+        <v>10.52431807242833</v>
       </c>
       <c r="P2" t="n">
-        <v>363.3794606766438</v>
+        <v>363.3804800671137</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16206,28 +16252,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2726134218328286</v>
+        <v>0.2706692129302678</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05015420401415538</v>
+        <v>0.04981812242893136</v>
       </c>
       <c r="M3" t="n">
-        <v>7.05700156174769</v>
+        <v>7.042430132405954</v>
       </c>
       <c r="N3" t="n">
-        <v>75.12038787802808</v>
+        <v>74.89573320388716</v>
       </c>
       <c r="O3" t="n">
-        <v>8.667201848233839</v>
+        <v>8.654232097874841</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7049929404864</v>
+        <v>358.7243485968355</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16284,28 +16330,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2260671648485828</v>
+        <v>0.2225588053901283</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03397009982413457</v>
+        <v>0.03315216687916001</v>
       </c>
       <c r="M4" t="n">
-        <v>6.985969893294841</v>
+        <v>6.982888183042284</v>
       </c>
       <c r="N4" t="n">
-        <v>78.48532753837057</v>
+        <v>78.31903613386795</v>
       </c>
       <c r="O4" t="n">
-        <v>8.859194519727545</v>
+        <v>8.849804299184697</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9347871446337</v>
+        <v>360.9697248494973</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16362,28 +16408,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1385357705152863</v>
+        <v>0.1378231561036789</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01483656782422005</v>
+        <v>0.0147949855930134</v>
       </c>
       <c r="M5" t="n">
-        <v>6.454555987169453</v>
+        <v>6.437598937782319</v>
       </c>
       <c r="N5" t="n">
-        <v>66.93192495936916</v>
+        <v>66.71956470493245</v>
       </c>
       <c r="O5" t="n">
-        <v>8.181193370124506</v>
+        <v>8.168204497007434</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0966785863667</v>
+        <v>367.1038049772308</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16440,28 +16486,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02593730125787544</v>
+        <v>0.0271349697137328</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004083675715699231</v>
+        <v>0.0004502171212141803</v>
       </c>
       <c r="M6" t="n">
-        <v>7.112149294389015</v>
+        <v>7.094572807779062</v>
       </c>
       <c r="N6" t="n">
-        <v>86.32690107934619</v>
+        <v>86.05673159212391</v>
       </c>
       <c r="O6" t="n">
-        <v>9.29122710299055</v>
+        <v>9.276676753672293</v>
       </c>
       <c r="P6" t="n">
-        <v>367.9658998664152</v>
+        <v>367.9538407815201</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16518,28 +16564,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1535879216151282</v>
+        <v>-0.1499769861334057</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01547998014901619</v>
+        <v>0.01485813908600453</v>
       </c>
       <c r="M7" t="n">
-        <v>7.215081845985487</v>
+        <v>7.209103395518876</v>
       </c>
       <c r="N7" t="n">
-        <v>80.19579497955448</v>
+        <v>80.03437384511641</v>
       </c>
       <c r="O7" t="n">
-        <v>8.955210493313626</v>
+        <v>8.946193259991448</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6561589184116</v>
+        <v>371.6200152937051</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16596,28 +16642,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1662782962215816</v>
+        <v>-0.1604786602868537</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01730828401921292</v>
+        <v>0.01620565601334745</v>
       </c>
       <c r="M8" t="n">
-        <v>7.327732135146196</v>
+        <v>7.328327738646162</v>
       </c>
       <c r="N8" t="n">
-        <v>82.83729735046917</v>
+        <v>82.81974497200598</v>
       </c>
       <c r="O8" t="n">
-        <v>9.101499730839372</v>
+        <v>9.100535422270822</v>
       </c>
       <c r="P8" t="n">
-        <v>366.4693817311211</v>
+        <v>366.4104913050714</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16674,28 +16720,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1137809673917453</v>
+        <v>-0.1103775547873921</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006883665546946971</v>
+        <v>0.006519260685154848</v>
       </c>
       <c r="M9" t="n">
-        <v>8.072433176391177</v>
+        <v>8.064287408924478</v>
       </c>
       <c r="N9" t="n">
-        <v>99.9726083016933</v>
+        <v>99.74227557692957</v>
       </c>
       <c r="O9" t="n">
-        <v>9.998630321283676</v>
+        <v>9.987105465395345</v>
       </c>
       <c r="P9" t="n">
-        <v>370.3467573510239</v>
+        <v>370.3123842064434</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16733,7 +16779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J349"/>
+  <dimension ref="A1:J350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33569,6 +33615,58 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-36.82714980675517,175.71493061678692</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-36.827823722306924,175.7152655203095</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-36.8284808112534,175.71563235842643</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-36.829085936183574,175.71610711833145</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-36.829673189410904,175.71660445858288</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-36.83021143813532,175.71716469304</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-36.83066813063421,175.71783081492057</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-36.83105926542299,175.7185777607057</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J350"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12389,6 +12389,78 @@
       <c r="J350" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>374.3033333333333</v>
+      </c>
+      <c r="C351" t="n">
+        <v>369.8981818181818</v>
+      </c>
+      <c r="D351" t="n">
+        <v>372.0617391304348</v>
+      </c>
+      <c r="E351" t="n">
+        <v>376.9717391304348</v>
+      </c>
+      <c r="F351" t="n">
+        <v>373.48</v>
+      </c>
+      <c r="G351" t="n">
+        <v>379.3681818181818</v>
+      </c>
+      <c r="H351" t="n">
+        <v>367.5517391304348</v>
+      </c>
+      <c r="I351" t="n">
+        <v>368.2971428571428</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>375.8277777777778</v>
+      </c>
+      <c r="C352" t="n">
+        <v>373.240909090909</v>
+      </c>
+      <c r="D352" t="n">
+        <v>374.1478260869565</v>
+      </c>
+      <c r="E352" t="n">
+        <v>372.6978260869565</v>
+      </c>
+      <c r="F352" t="n">
+        <v>369.1833333333333</v>
+      </c>
+      <c r="G352" t="n">
+        <v>369.7509090909091</v>
+      </c>
+      <c r="H352" t="n">
+        <v>371.7278260869565</v>
+      </c>
+      <c r="I352" t="n">
+        <v>379.9471428571428</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12403,7 +12475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16001,6 +16073,26 @@
       </c>
       <c r="B359" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -16174,28 +16266,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3206786113514406</v>
+        <v>0.3249733016517376</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04736363242935249</v>
+        <v>0.04918404817236632</v>
       </c>
       <c r="M2" t="n">
-        <v>8.212987835826691</v>
+        <v>8.180508673354122</v>
       </c>
       <c r="N2" t="n">
-        <v>110.7612708896416</v>
+        <v>110.1270019013811</v>
       </c>
       <c r="O2" t="n">
-        <v>10.52431807242833</v>
+        <v>10.49414131319858</v>
       </c>
       <c r="P2" t="n">
-        <v>363.3804800671137</v>
+        <v>363.3368705852159</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16252,28 +16344,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2706692129302678</v>
+        <v>0.2785503258975159</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04981812242893136</v>
+        <v>0.05319724814891302</v>
       </c>
       <c r="M3" t="n">
-        <v>7.042430132405954</v>
+        <v>7.035726717173263</v>
       </c>
       <c r="N3" t="n">
-        <v>74.89573320388716</v>
+        <v>74.63839468102417</v>
       </c>
       <c r="O3" t="n">
-        <v>8.654232097874841</v>
+        <v>8.639351519704714</v>
       </c>
       <c r="P3" t="n">
-        <v>358.7243485968355</v>
+        <v>358.6456862564732</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16330,28 +16422,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2225588053901283</v>
+        <v>0.2308477339873219</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03315216687916001</v>
+        <v>0.0359536830266457</v>
       </c>
       <c r="M4" t="n">
-        <v>6.982888183042284</v>
+        <v>6.972600557166869</v>
       </c>
       <c r="N4" t="n">
-        <v>78.31903613386795</v>
+        <v>78.07441270321169</v>
       </c>
       <c r="O4" t="n">
-        <v>8.849804299184697</v>
+        <v>8.835972651791748</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9697248494973</v>
+        <v>360.8869666832685</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16408,28 +16500,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1378231561036789</v>
+        <v>0.1433570092094258</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0147949855930134</v>
+        <v>0.01619004192635054</v>
       </c>
       <c r="M5" t="n">
-        <v>6.437598937782319</v>
+        <v>6.419069187643156</v>
       </c>
       <c r="N5" t="n">
-        <v>66.71956470493245</v>
+        <v>66.43001429896958</v>
       </c>
       <c r="O5" t="n">
-        <v>8.168204497007434</v>
+        <v>8.150460986899427</v>
       </c>
       <c r="P5" t="n">
-        <v>367.1038049772308</v>
+        <v>367.0483478658036</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16486,28 +16578,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0271349697137328</v>
+        <v>0.03068618059038923</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004502171212141803</v>
+        <v>0.0005837169871735215</v>
       </c>
       <c r="M6" t="n">
-        <v>7.094572807779062</v>
+        <v>7.064982967019475</v>
       </c>
       <c r="N6" t="n">
-        <v>86.05673159212391</v>
+        <v>85.57653092133954</v>
       </c>
       <c r="O6" t="n">
-        <v>9.276676753672293</v>
+        <v>9.250758397090454</v>
       </c>
       <c r="P6" t="n">
-        <v>367.9538407815201</v>
+        <v>367.9180132053154</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16564,28 +16656,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1499769861334057</v>
+        <v>-0.1411978247329334</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01485813908600453</v>
+        <v>0.013305137642041</v>
       </c>
       <c r="M7" t="n">
-        <v>7.209103395518876</v>
+        <v>7.204495555601418</v>
       </c>
       <c r="N7" t="n">
-        <v>80.03437384511641</v>
+        <v>79.96159006003806</v>
       </c>
       <c r="O7" t="n">
-        <v>8.946193259991448</v>
+        <v>8.942124471289699</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6200152937051</v>
+        <v>371.5319546749107</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16642,28 +16734,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1604786602868537</v>
+        <v>-0.1509418391283061</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01620565601334745</v>
+        <v>0.01449913229232969</v>
       </c>
       <c r="M8" t="n">
-        <v>7.328327738646162</v>
+        <v>7.32072219030357</v>
       </c>
       <c r="N8" t="n">
-        <v>82.81974497200598</v>
+        <v>82.6585797579869</v>
       </c>
       <c r="O8" t="n">
-        <v>9.100535422270822</v>
+        <v>9.091676399761866</v>
       </c>
       <c r="P8" t="n">
-        <v>366.4104913050714</v>
+        <v>366.3134003092175</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16720,28 +16812,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1103775547873921</v>
+        <v>-0.1019807683251297</v>
       </c>
       <c r="J9" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006519260685154848</v>
+        <v>0.005618630861965346</v>
       </c>
       <c r="M9" t="n">
-        <v>8.064287408924478</v>
+        <v>8.056111926020112</v>
       </c>
       <c r="N9" t="n">
-        <v>99.74227557692957</v>
+        <v>99.60060451860788</v>
       </c>
       <c r="O9" t="n">
-        <v>9.987105465395345</v>
+        <v>9.980010246417981</v>
       </c>
       <c r="P9" t="n">
-        <v>370.3123842064434</v>
+        <v>370.2273274953471</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16779,7 +16871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J350"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17251,7 +17343,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.82720173213991,175.71481320500988</t>
+          <t>-36.827201732139905,175.71481320500988</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -33667,6 +33759,110 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-36.82713766363856,175.71495807429767</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-36.827794677572065,175.71533499422182</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-36.82843785804673,175.71573847023743</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-36.82905185727042,175.71617776171556</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-36.82965664341376,175.71663202408973</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-36.83017188895298,175.71721308400933</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-36.830693507590865,175.717808152843</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-36.831092656510776,175.7185503720937</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-36.827131044503716,175.71497304120084</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-36.82778078429834,175.71536822635758</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-36.828429406550136,175.71575934881503</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-36.82907166778478,175.71613669581768</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-36.82967980062199,175.71659344434875</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-36.83023365316124,175.71713751149488</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-36.830662947702145,175.71783544336967</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-36.83100504249618,175.71862223630748</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12459,6 +12459,42 @@
         <v>379.9471428571428</v>
       </c>
       <c r="J352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>379.4266666666667</v>
+      </c>
+      <c r="C353" t="n">
+        <v>377.2336363636364</v>
+      </c>
+      <c r="D353" t="n">
+        <v>378.3256521739131</v>
+      </c>
+      <c r="E353" t="n">
+        <v>377.645652173913</v>
+      </c>
+      <c r="F353" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="G353" t="n">
+        <v>377.7036363636364</v>
+      </c>
+      <c r="H353" t="n">
+        <v>372.9856521739131</v>
+      </c>
+      <c r="I353" t="n">
+        <v>387.41</v>
+      </c>
+      <c r="J353" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12475,7 +12511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16093,6 +16129,16 @@
       </c>
       <c r="B361" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
@@ -16266,28 +16312,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3249733016517376</v>
+        <v>0.3298071673548836</v>
       </c>
       <c r="J2" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04918404817236632</v>
+        <v>0.05082895280747657</v>
       </c>
       <c r="M2" t="n">
-        <v>8.180508673354122</v>
+        <v>8.176884799946208</v>
       </c>
       <c r="N2" t="n">
-        <v>110.1270019013811</v>
+        <v>109.9608682293862</v>
       </c>
       <c r="O2" t="n">
-        <v>10.49414131319858</v>
+        <v>10.4862227817926</v>
       </c>
       <c r="P2" t="n">
-        <v>363.3368705852159</v>
+        <v>363.2876669965733</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16344,28 +16390,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2785503258975159</v>
+        <v>0.2861712022193932</v>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05319724814891302</v>
+        <v>0.05607536713546946</v>
       </c>
       <c r="M3" t="n">
-        <v>7.035726717173263</v>
+        <v>7.050994633955288</v>
       </c>
       <c r="N3" t="n">
-        <v>74.63839468102417</v>
+        <v>74.8143217831996</v>
       </c>
       <c r="O3" t="n">
-        <v>8.639351519704714</v>
+        <v>8.649527257786959</v>
       </c>
       <c r="P3" t="n">
-        <v>358.6456862564732</v>
+        <v>358.5694456714938</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16422,28 +16468,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2308477339873219</v>
+        <v>0.2382514173492514</v>
       </c>
       <c r="J4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0359536830266457</v>
+        <v>0.03826864556436427</v>
       </c>
       <c r="M4" t="n">
-        <v>6.972600557166869</v>
+        <v>6.981962001588567</v>
       </c>
       <c r="N4" t="n">
-        <v>78.07441270321169</v>
+        <v>78.24290343211786</v>
       </c>
       <c r="O4" t="n">
-        <v>8.835972651791748</v>
+        <v>8.845501875649445</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8869666832685</v>
+        <v>360.8128664447486</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16500,28 +16546,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1433570092094258</v>
+        <v>0.147904806765767</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01619004192635054</v>
+        <v>0.01730207434204301</v>
       </c>
       <c r="M5" t="n">
-        <v>6.419069187643156</v>
+        <v>6.417234568230936</v>
       </c>
       <c r="N5" t="n">
-        <v>66.43001429896958</v>
+        <v>66.36740216331157</v>
       </c>
       <c r="O5" t="n">
-        <v>8.150460986899427</v>
+        <v>8.1466190633484</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0483478658036</v>
+        <v>367.0026529694049</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16578,28 +16624,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03068618059038923</v>
+        <v>0.03565733285180951</v>
       </c>
       <c r="J6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005837169871735215</v>
+        <v>0.0007920803862540016</v>
       </c>
       <c r="M6" t="n">
-        <v>7.064982967019475</v>
+        <v>7.064717224362469</v>
       </c>
       <c r="N6" t="n">
-        <v>85.57653092133954</v>
+        <v>85.48159679106048</v>
       </c>
       <c r="O6" t="n">
-        <v>9.250758397090454</v>
+        <v>9.245625819329943</v>
       </c>
       <c r="P6" t="n">
-        <v>367.9180132053154</v>
+        <v>367.8677202560989</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16656,28 +16702,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1411978247329334</v>
+        <v>-0.1348976846058257</v>
       </c>
       <c r="J7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.013305137642041</v>
+        <v>0.01219682177082426</v>
       </c>
       <c r="M7" t="n">
-        <v>7.204495555601418</v>
+        <v>7.211441746692543</v>
       </c>
       <c r="N7" t="n">
-        <v>79.96159006003806</v>
+        <v>80.01190908400834</v>
       </c>
       <c r="O7" t="n">
-        <v>8.942124471289699</v>
+        <v>8.944937623259781</v>
       </c>
       <c r="P7" t="n">
-        <v>371.5319546749107</v>
+        <v>371.4685807549324</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16734,28 +16780,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1509418391283061</v>
+        <v>-0.1441400674034891</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01449913229232969</v>
+        <v>0.013273290120559</v>
       </c>
       <c r="M8" t="n">
-        <v>7.32072219030357</v>
+        <v>7.325634530428094</v>
       </c>
       <c r="N8" t="n">
-        <v>82.6585797579869</v>
+        <v>82.74923766857813</v>
       </c>
       <c r="O8" t="n">
-        <v>9.091676399761866</v>
+        <v>9.096660797709131</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3134003092175</v>
+        <v>366.2439915478024</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16812,28 +16858,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1019807683251297</v>
+        <v>-0.08956452517952856</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005618630861965346</v>
+        <v>0.004315147967732691</v>
       </c>
       <c r="M9" t="n">
-        <v>8.056111926020112</v>
+        <v>8.094386414290287</v>
       </c>
       <c r="N9" t="n">
-        <v>99.60060451860788</v>
+        <v>100.5200878838406</v>
       </c>
       <c r="O9" t="n">
-        <v>9.980010246417981</v>
+        <v>10.02597067040596</v>
       </c>
       <c r="P9" t="n">
-        <v>370.2273274953471</v>
+        <v>370.1012910134905</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16871,7 +16917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33863,6 +33909,58 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.827115418128024,175.71500837486326</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.82776418943817,175.71540792053221</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.82841248064741,175.71580116252562</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.82904873353602,175.71618423700775</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.82964176818,175.7166568060986</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-36.8301825790275,175.71720000402237</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-36.8306537431453,175.71784366319824</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-36.83094891793763,175.71866827161895</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12495,6 +12495,78 @@
         <v>387.41</v>
       </c>
       <c r="J353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>370.4488888888889</v>
+      </c>
+      <c r="C354" t="n">
+        <v>364.5827272727273</v>
+      </c>
+      <c r="D354" t="n">
+        <v>367.3278260869565</v>
+      </c>
+      <c r="E354" t="n">
+        <v>367.7178260869565</v>
+      </c>
+      <c r="F354" t="n">
+        <v>375.6966666666667</v>
+      </c>
+      <c r="G354" t="n">
+        <v>379.8427272727273</v>
+      </c>
+      <c r="H354" t="n">
+        <v>371.4278260869565</v>
+      </c>
+      <c r="I354" t="n">
+        <v>373.5028571428572</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>372.7744444444445</v>
+      </c>
+      <c r="C355" t="n">
+        <v>365.34</v>
+      </c>
+      <c r="D355" t="n">
+        <v>366.8330434782609</v>
+      </c>
+      <c r="E355" t="n">
+        <v>373.1630434782609</v>
+      </c>
+      <c r="F355" t="n">
+        <v>370.4833333333333</v>
+      </c>
+      <c r="G355" t="n">
+        <v>371.58</v>
+      </c>
+      <c r="H355" t="n">
+        <v>366.0830434782609</v>
+      </c>
+      <c r="I355" t="n">
+        <v>372.8014285714286</v>
+      </c>
+      <c r="J355" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12511,7 +12583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16139,6 +16211,26 @@
       </c>
       <c r="B362" t="n">
         <v>-0.84</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -16312,28 +16404,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3298071673548836</v>
+        <v>0.3294727130760118</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05082895280747657</v>
+        <v>0.05138670583690808</v>
       </c>
       <c r="M2" t="n">
-        <v>8.176884799946208</v>
+        <v>8.132462869091242</v>
       </c>
       <c r="N2" t="n">
-        <v>109.9608682293862</v>
+        <v>109.2716842398909</v>
       </c>
       <c r="O2" t="n">
-        <v>10.4862227817926</v>
+        <v>10.45330972658377</v>
       </c>
       <c r="P2" t="n">
-        <v>363.2876669965733</v>
+        <v>363.2910827552039</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16390,28 +16482,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2861712022193932</v>
+        <v>0.2847599019486863</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05607536713546946</v>
+        <v>0.05633304233600522</v>
       </c>
       <c r="M3" t="n">
-        <v>7.050994633955288</v>
+        <v>7.011279950897392</v>
       </c>
       <c r="N3" t="n">
-        <v>74.8143217831996</v>
+        <v>74.33033732910276</v>
       </c>
       <c r="O3" t="n">
-        <v>8.649527257786959</v>
+        <v>8.621504354177567</v>
       </c>
       <c r="P3" t="n">
-        <v>358.5694456714938</v>
+        <v>358.5836376677798</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16468,28 +16560,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2382514173492514</v>
+        <v>0.2383283271306421</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03826864556436427</v>
+        <v>0.03881835853652715</v>
       </c>
       <c r="M4" t="n">
-        <v>6.981962001588567</v>
+        <v>6.938339724898433</v>
       </c>
       <c r="N4" t="n">
-        <v>78.24290343211786</v>
+        <v>77.73690446938947</v>
       </c>
       <c r="O4" t="n">
-        <v>8.845501875649445</v>
+        <v>8.816853433588962</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8128664447486</v>
+        <v>360.8120940675046</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16546,28 +16638,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.147904806765767</v>
+        <v>0.1473644085110442</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01730207434204301</v>
+        <v>0.01741600238590102</v>
       </c>
       <c r="M5" t="n">
-        <v>6.417234568230936</v>
+        <v>6.394155429421114</v>
       </c>
       <c r="N5" t="n">
-        <v>66.36740216331157</v>
+        <v>65.99410413459852</v>
       </c>
       <c r="O5" t="n">
-        <v>8.1466190633484</v>
+        <v>8.123675531100348</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0026529694049</v>
+        <v>367.0080938461106</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16624,28 +16716,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03565733285180951</v>
+        <v>0.04126877286363853</v>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007920803862540016</v>
+        <v>0.001074270076632633</v>
       </c>
       <c r="M6" t="n">
-        <v>7.064717224362469</v>
+        <v>7.044501591130488</v>
       </c>
       <c r="N6" t="n">
-        <v>85.48159679106048</v>
+        <v>85.09415195190044</v>
       </c>
       <c r="O6" t="n">
-        <v>9.245625819329943</v>
+        <v>9.224649150612745</v>
       </c>
       <c r="P6" t="n">
-        <v>367.8677202560989</v>
+        <v>367.8106688178282</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16702,28 +16794,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1348976846058257</v>
+        <v>-0.1250561964265711</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01219682177082426</v>
+        <v>0.01058374229567571</v>
       </c>
       <c r="M7" t="n">
-        <v>7.211441746692543</v>
+        <v>7.211886959470957</v>
       </c>
       <c r="N7" t="n">
-        <v>80.01190908400834</v>
+        <v>79.98653438631463</v>
       </c>
       <c r="O7" t="n">
-        <v>8.944937623259781</v>
+        <v>8.943519127631731</v>
       </c>
       <c r="P7" t="n">
-        <v>371.4685807549324</v>
+        <v>371.3690731373007</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16780,28 +16872,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1441400674034891</v>
+        <v>-0.1361642827813968</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.013273290120559</v>
+        <v>0.01198444094944606</v>
       </c>
       <c r="M8" t="n">
-        <v>7.325634530428094</v>
+        <v>7.312894041446413</v>
       </c>
       <c r="N8" t="n">
-        <v>82.74923766857813</v>
+        <v>82.51272342481076</v>
       </c>
       <c r="O8" t="n">
-        <v>9.096660797709131</v>
+        <v>9.083651436774243</v>
       </c>
       <c r="P8" t="n">
-        <v>366.2439915478024</v>
+        <v>366.1621784794451</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16858,28 +16950,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08956452517952856</v>
+        <v>-0.08287979047260224</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004315147967732691</v>
+        <v>0.003740848286161169</v>
       </c>
       <c r="M9" t="n">
-        <v>8.094386414290287</v>
+        <v>8.077114052270865</v>
       </c>
       <c r="N9" t="n">
-        <v>100.5200878838406</v>
+        <v>100.0659724448832</v>
       </c>
       <c r="O9" t="n">
-        <v>10.02597067040596</v>
+        <v>10.00329807837811</v>
       </c>
       <c r="P9" t="n">
-        <v>370.1012910134905</v>
+        <v>370.0330601039003</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16917,7 +17009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33961,6 +34053,110 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.82715439962093,175.71492023158387</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.827816770012774,175.7152821499487</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.82845703683641,175.71569109090478</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.829094751148496,175.7160888454551</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-36.82964469651746,175.71665192751553</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-36.83016884131816,175.71721681298365</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-36.83066514305092,175.71783348288488</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-36.83105350685645,175.7185824840933</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-36.82714430206937,175.71494306375655</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-36.82781362258759,175.7152896784746</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.828459041378224,175.71568613887538</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.829069511401876,175.71614116586053</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.829672794175416,175.71660511704246</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-36.83022190634666,175.7171518844978</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-36.83070425525266,175.71779855498272</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-36.83105878196125,175.71857815725878</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12567,6 +12567,42 @@
         <v>372.8014285714286</v>
       </c>
       <c r="J355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>371.5744444444445</v>
+      </c>
+      <c r="C356" t="n">
+        <v>366.8927272727273</v>
+      </c>
+      <c r="D356" t="n">
+        <v>367.7034782608696</v>
+      </c>
+      <c r="E356" t="n">
+        <v>375.7534782608696</v>
+      </c>
+      <c r="F356" t="n">
+        <v>374.2133333333333</v>
+      </c>
+      <c r="G356" t="n">
+        <v>377.2027272727273</v>
+      </c>
+      <c r="H356" t="n">
+        <v>366.3834782608696</v>
+      </c>
+      <c r="I356" t="n">
+        <v>365.0028571428572</v>
+      </c>
+      <c r="J356" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12583,7 +12619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16231,6 +16267,16 @@
       </c>
       <c r="B364" t="n">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -16404,28 +16450,28 @@
         <v>0.1009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3294727130760118</v>
+        <v>0.3292547652371081</v>
       </c>
       <c r="J2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05138670583690808</v>
+        <v>0.05165665785544382</v>
       </c>
       <c r="M2" t="n">
-        <v>8.132462869091242</v>
+        <v>8.107902864303757</v>
       </c>
       <c r="N2" t="n">
-        <v>109.2716842398909</v>
+        <v>108.9262659378089</v>
       </c>
       <c r="O2" t="n">
-        <v>10.45330972658377</v>
+        <v>10.43677469038251</v>
       </c>
       <c r="P2" t="n">
-        <v>363.2910827552039</v>
+        <v>363.2933280038686</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16482,28 +16528,28 @@
         <v>0.1322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2847599019486863</v>
+        <v>0.2853248182399197</v>
       </c>
       <c r="J3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05633304233600522</v>
+        <v>0.0569418291228162</v>
       </c>
       <c r="M3" t="n">
-        <v>7.011279950897392</v>
+        <v>6.991179865173787</v>
       </c>
       <c r="N3" t="n">
-        <v>74.33033732910276</v>
+        <v>74.08897256962332</v>
       </c>
       <c r="O3" t="n">
-        <v>8.621504354177567</v>
+        <v>8.607495139099605</v>
       </c>
       <c r="P3" t="n">
-        <v>358.5836376677798</v>
+        <v>358.5779202444794</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16560,28 +16606,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2383283271306421</v>
+        <v>0.2387444069475652</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03881835853652715</v>
+        <v>0.03921607843522712</v>
       </c>
       <c r="M4" t="n">
-        <v>6.938339724898433</v>
+        <v>6.917762419195943</v>
       </c>
       <c r="N4" t="n">
-        <v>77.73690446938947</v>
+        <v>77.48748162077781</v>
       </c>
       <c r="O4" t="n">
-        <v>8.816853433588962</v>
+        <v>8.802697405953349</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8120940675046</v>
+        <v>360.8078797313814</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16638,28 +16684,28 @@
         <v>0.1375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1473644085110442</v>
+        <v>0.1505676850353204</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01741600238590102</v>
+        <v>0.01827956572861233</v>
       </c>
       <c r="M5" t="n">
-        <v>6.394155429421114</v>
+        <v>6.386953081899515</v>
       </c>
       <c r="N5" t="n">
-        <v>65.99410413459852</v>
+        <v>65.85998646982674</v>
       </c>
       <c r="O5" t="n">
-        <v>8.123675531100348</v>
+        <v>8.11541659250015</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0080938461106</v>
+        <v>366.9755445814254</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16716,28 +16762,28 @@
         <v>0.1414</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04126877286363853</v>
+        <v>0.04475677974180094</v>
       </c>
       <c r="J6" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001074270076632633</v>
+        <v>0.001271242433291908</v>
       </c>
       <c r="M6" t="n">
-        <v>7.044501591130488</v>
+        <v>7.037305139276712</v>
       </c>
       <c r="N6" t="n">
-        <v>85.09415195190044</v>
+        <v>84.91239699242007</v>
       </c>
       <c r="O6" t="n">
-        <v>9.224649150612745</v>
+        <v>9.214792292418753</v>
       </c>
       <c r="P6" t="n">
-        <v>367.8106688178282</v>
+        <v>367.7749781924111</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16794,28 +16840,28 @@
         <v>0.1303</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1250561964265711</v>
+        <v>-0.1192590238244805</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01058374229567571</v>
+        <v>0.009671000433630117</v>
       </c>
       <c r="M7" t="n">
-        <v>7.211886959470957</v>
+        <v>7.216103136482177</v>
       </c>
       <c r="N7" t="n">
-        <v>79.98653438631463</v>
+        <v>79.99334547290719</v>
       </c>
       <c r="O7" t="n">
-        <v>8.943519127631731</v>
+        <v>8.943899902889521</v>
       </c>
       <c r="P7" t="n">
-        <v>371.3690731373007</v>
+        <v>371.3100696809768</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16872,28 +16918,28 @@
         <v>0.1429</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1361642827813968</v>
+        <v>-0.1337455290453613</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01198444094944606</v>
+        <v>0.01164139554447308</v>
       </c>
       <c r="M8" t="n">
-        <v>7.312894041446413</v>
+        <v>7.299858618065625</v>
       </c>
       <c r="N8" t="n">
-        <v>82.51272342481076</v>
+        <v>82.29587426130755</v>
       </c>
       <c r="O8" t="n">
-        <v>9.083651436774243</v>
+        <v>9.071707350951504</v>
       </c>
       <c r="P8" t="n">
-        <v>366.1621784794451</v>
+        <v>366.1372048807683</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16950,28 +16996,28 @@
         <v>0.1738</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08287979047260224</v>
+        <v>-0.08466036819508242</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003740848286161169</v>
+        <v>0.00392826397821544</v>
       </c>
       <c r="M9" t="n">
-        <v>8.077114052270865</v>
+        <v>8.060667889549102</v>
       </c>
       <c r="N9" t="n">
-        <v>100.0659724448832</v>
+        <v>99.77675057993577</v>
       </c>
       <c r="O9" t="n">
-        <v>10.00329807837811</v>
+        <v>9.988831291994863</v>
       </c>
       <c r="P9" t="n">
-        <v>370.0330601039003</v>
+        <v>370.0513531132938</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17009,7 +17055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34157,6 +34203,58 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.82714951246439,175.7149312822253</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.82780716904205,175.71530511511384</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.828455514934575,175.7156948506176</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.82905750417527,175.71616605605695</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.82965269105743,175.71663860868242</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-36.83018579597484,175.7171960678814</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-36.830702056722735,175.71780051831078</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-36.83111743123322,175.71853005092697</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0177/nzd0177.xlsx
+++ b/data/nzd0177/nzd0177.xlsx
@@ -16441,13 +16441,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1009</v>
+        <v>0.168</v>
       </c>
       <c r="I2" t="n">
         <v>0.3292333984678992</v>
@@ -16519,13 +16519,13 @@
         <v>0.1429572835215006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0968</v>
+        <v>0.1057</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1322</v>
+        <v>0.1665</v>
       </c>
       <c r="I3" t="n">
         <v>0.2853133630827392</v>
@@ -16597,13 +16597,13 @@
         <v>0.2858806739477683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115</v>
+        <v>0.165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0994</v>
+        <v>0.1256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1358</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.2387596367095244</v>
@@ -16675,13 +16675,13 @@
         <v>0.4286081662574883</v>
       </c>
       <c r="F5" t="n">
-        <v>0.115</v>
+        <v>0.165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1004</v>
+        <v>0.1384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1375</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.1505899056547502</v>
@@ -16753,13 +16753,13 @@
         <v>0.57146771250838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1021</v>
+        <v>0.1342</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1414</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.04472092972038183</v>
@@ -16831,13 +16831,13 @@
         <v>0.7141772322839494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0935</v>
+        <v>0.1117</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1303</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1192766701324647</v>
@@ -16909,13 +16909,13 @@
         <v>0.8571345158037602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.115</v>
+        <v>0.165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.097</v>
+        <v>0.1347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1429</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1337171989653935</v>
@@ -16987,13 +16987,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.115</v>
+        <v>0.1017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1738</v>
+        <v>0.1443</v>
       </c>
       <c r="I9" t="n">
         <v>-0.08465039242772061</v>
